--- a/biology/Zoologie/Ectactolpium_namaquense/Ectactolpium_namaquense.xlsx
+++ b/biology/Zoologie/Ectactolpium_namaquense/Ectactolpium_namaquense.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ectactolpium namaquense est une espèce de pseudoscorpions de la famille des Hesperolpiidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Afrique du Sud et en Namibie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Afrique du Sud et en Namibie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ectactolpium namaquense namaquense mesure de 2,5 à 2,8 mm[2] et Ectactolpium namaquense obscurum de 2,6 à 2,8 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ectactolpium namaquense namaquense mesure de 2,5 à 2,8 mm et Ectactolpium namaquense obscurum de 2,6 à 2,8 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Pseudoscorpions of the World (version 3.0)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Pseudoscorpions of the World (version 3.0) :
 Ectactolpium namaquense namaquense Beier, 1947
 Ectactolpium namaquense obscurum Beier, 1964</t>
         </is>
@@ -605,7 +623,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, composé de namaqu[aland] et du suffixe latin -ense, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, le Namaqualand.
 </t>
@@ -636,7 +656,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Beier, 1947 : Zur Kenntnis der Pseudoscorpionidenfauna des südlichen Afrika, insbesondere der südwest- und südafrikanischen Trockengebiete. Eos, Madrid, vol. 23, p. 285-339 (texte intégral).
 Beier, 1964 : Weiteres zur Kenntnis der Pseudoscorpioniden-Fauna des südlichen Afrika. Annals of the Natal Museum, vol. 16, p. 30-90 (texte intégral).</t>
